--- a/data/trans_orig/IP11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP11-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B311A910-0877-471C-A9AB-448F976E3614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A36BFA2F-D002-421A-8CF2-F45CC789C211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F1E81E5D-1B1E-43F4-AB47-6B8B78435050}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B3411BF-77FD-47C4-86D1-C38D565B3BD9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="331">
   <si>
     <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -119,31 +119,31 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>7,98%</t>
+    <t>7,59%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>92,02%</t>
+    <t>92,41%</t>
   </si>
   <si>
     <t>99,21%</t>
@@ -152,856 +152,886 @@
     <t>95,47%</t>
   </si>
   <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
   </si>
   <si>
     <t>96,09%</t>
   </si>
   <si>
-    <t>93,21%</t>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2012 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2016 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>98,05%</t>
   </si>
   <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2012 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2015 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>3,79%</t>
   </si>
   <si>
     <t>96,91%</t>
   </si>
   <si>
-    <t>95,62%</t>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>97,73%</t>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3B4206-9612-47F7-B2B1-C8CCA86BD2C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A876E7C-FF6B-4126-81BA-CA55015D2DBA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2407,10 +2437,10 @@
         <v>89</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21" s="7">
         <v>53</v>
@@ -2419,13 +2449,13 @@
         <v>35304</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M21" s="7">
         <v>123</v>
@@ -2437,10 +2467,10 @@
         <v>71</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2485,13 @@
         <v>676175</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>965</v>
@@ -2470,13 +2500,13 @@
         <v>645717</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>1981</v>
@@ -2488,10 +2518,10 @@
         <v>80</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,7 +2577,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2567,7 +2597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9C27AC-124A-4E08-ACA9-EA0167666C76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72BBE4F-3F62-445E-8202-463F5BAE16FE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2584,7 +2614,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2895,7 +2925,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2910,7 +2940,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2940,13 +2970,13 @@
         <v>12584</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -2955,13 +2985,13 @@
         <v>4053</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
@@ -2970,13 +3000,13 @@
         <v>16637</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,28 +3021,28 @@
         <v>73608</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H10" s="7">
         <v>128</v>
       </c>
       <c r="I10" s="7">
-        <v>88315</v>
+        <v>88316</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
         <v>232</v>
@@ -3021,13 +3051,13 @@
         <v>161924</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,7 +3084,7 @@
         <v>134</v>
       </c>
       <c r="I11" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>19</v>
@@ -3116,7 +3146,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3146,13 +3176,13 @@
         <v>44894</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -3161,13 +3191,13 @@
         <v>37951</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>120</v>
@@ -3176,13 +3206,13 @@
         <v>82845</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3227,13 @@
         <v>447861</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>599</v>
@@ -3212,13 +3242,13 @@
         <v>413848</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>1240</v>
@@ -3227,13 +3257,13 @@
         <v>861709</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,7 +3367,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3382,13 @@
         <v>15899</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -3367,13 +3397,13 @@
         <v>9708</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -3382,13 +3412,13 @@
         <v>25607</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3433,13 @@
         <v>155582</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H18" s="7">
         <v>222</v>
@@ -3418,13 +3448,13 @@
         <v>157104</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="M18" s="7">
         <v>442</v>
@@ -3433,13 +3463,13 @@
         <v>312686</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3588,13 @@
         <v>73377</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H21" s="7">
         <v>75</v>
@@ -3573,13 +3603,13 @@
         <v>51712</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M21" s="7">
         <v>180</v>
@@ -3588,13 +3618,13 @@
         <v>125089</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3639,13 @@
         <v>677692</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H22" s="7">
         <v>949</v>
@@ -3624,13 +3654,13 @@
         <v>659268</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M22" s="7">
         <v>1915</v>
@@ -3639,13 +3669,13 @@
         <v>1336960</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,7 +3731,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3721,7 +3751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9DB4EF-E20D-48DF-956E-F4D6C7AF4FF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36E2AE9-866E-40D6-AD08-8FD2C717BB83}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3738,7 +3768,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4033,7 +4063,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4048,7 +4078,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4063,7 +4093,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4108,13 @@
         <v>2529</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4093,13 +4123,13 @@
         <v>2457</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -4108,13 +4138,13 @@
         <v>4986</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4159,13 @@
         <v>66085</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>85</v>
@@ -4144,13 +4174,13 @@
         <v>56921</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
@@ -4159,13 +4189,13 @@
         <v>123007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,7 +4269,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4284,13 +4314,13 @@
         <v>31390</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4299,13 +4329,13 @@
         <v>16500</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -4314,13 +4344,13 @@
         <v>47890</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4365,13 @@
         <v>456683</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>688</v>
@@ -4350,13 +4380,13 @@
         <v>455173</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
         <v>1338</v>
@@ -4365,13 +4395,13 @@
         <v>911856</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,7 +4475,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4475,7 +4505,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4520,13 @@
         <v>6805</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -4505,13 +4535,13 @@
         <v>4412</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -4520,13 +4550,13 @@
         <v>11218</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4571,13 @@
         <v>180011</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>60</v>
+        <v>232</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="H18" s="7">
         <v>249</v>
@@ -4556,13 +4586,13 @@
         <v>166598</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M18" s="7">
         <v>509</v>
@@ -4571,10 +4601,10 @@
         <v>346608</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>41</v>
@@ -4696,13 +4726,13 @@
         <v>40724</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -4711,13 +4741,13 @@
         <v>23369</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="M21" s="7">
         <v>94</v>
@@ -4726,13 +4756,13 @@
         <v>64093</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,13 +4777,13 @@
         <v>702779</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="H22" s="7">
         <v>1022</v>
@@ -4762,13 +4792,13 @@
         <v>678692</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>2027</v>
@@ -4777,13 +4807,13 @@
         <v>1381471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,7 +4869,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4859,7 +4889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB9514C-9933-4D8E-9640-3F7DB9B93F87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F79C7FC-EF9B-4FF9-844C-72DB0FAB35E1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4876,7 +4906,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5187,7 +5217,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5202,7 +5232,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5217,7 +5247,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5262,13 @@
         <v>1036</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5247,13 +5277,13 @@
         <v>1080</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>257</v>
+        <v>131</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -5262,13 +5292,13 @@
         <v>2116</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,10 +5313,10 @@
         <v>57721</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>17</v>
@@ -5298,10 +5328,10 @@
         <v>50122</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>17</v>
@@ -5313,13 +5343,13 @@
         <v>107843</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,7 +5423,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5408,7 +5438,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -5423,7 +5453,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,13 +5468,13 @@
         <v>13974</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -5453,13 +5483,13 @@
         <v>11014</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -5468,13 +5498,13 @@
         <v>24989</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,13 +5519,13 @@
         <v>477396</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>624</v>
@@ -5504,13 +5534,13 @@
         <v>437703</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>1260</v>
@@ -5519,13 +5549,13 @@
         <v>915100</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5599,7 +5629,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5614,7 +5644,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5629,7 +5659,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,13 +5674,13 @@
         <v>7399</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5659,13 +5689,13 @@
         <v>5107</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -5674,13 +5704,13 @@
         <v>12507</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>52</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5725,13 @@
         <v>167184</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -5710,13 +5740,13 @@
         <v>146263</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="M18" s="7">
         <v>452</v>
@@ -5725,13 +5755,13 @@
         <v>313445</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>61</v>
+        <v>308</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,7 +5835,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5814,13 +5844,13 @@
         <v>833</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5829,7 +5859,7 @@
         <v>833</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
@@ -5850,13 +5880,13 @@
         <v>22410</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>256</v>
+        <v>315</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -5865,13 +5895,13 @@
         <v>17201</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="M21" s="7">
         <v>55</v>
@@ -5880,13 +5910,13 @@
         <v>39611</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5931,13 @@
         <v>702300</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>915</v>
@@ -5916,13 +5946,13 @@
         <v>635260</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
         <v>1862</v>
@@ -5931,13 +5961,13 @@
         <v>1337560</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,7 +6023,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP11-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A36BFA2F-D002-421A-8CF2-F45CC789C211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4BA8D61-1C2E-4A30-9BCE-199786BA5FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B3411BF-77FD-47C4-86D1-C38D565B3BD9}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{CE2C33B6-4707-4F6D-A356-3D6B4822BD65}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="325">
   <si>
     <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>996.0</t>
@@ -80,958 +80,940 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2012 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2016 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2012 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2016 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>3,09%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>97,86%</t>
   </si>
   <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
 </sst>
 </file>
@@ -1443,8 +1425,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A876E7C-FF6B-4126-81BA-CA55015D2DBA}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD83139F-FBEF-40AE-81CD-972C465192B2}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1578,12 +1560,14 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -1601,105 +1585,109 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2839</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>6954</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>86753</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="I6" s="7">
+        <v>84006</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>170758</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,52 +1696,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D7" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I7" s="7">
+        <v>86845</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N7" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1771,7 +1761,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1786,7 +1776,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1801,109 +1791,109 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>2839</v>
+        <v>21046</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="I9" s="7">
-        <v>4114</v>
+        <v>36922</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="N9" s="7">
-        <v>6954</v>
+        <v>57968</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>126</v>
+        <v>596</v>
       </c>
       <c r="D10" s="7">
-        <v>84005</v>
+        <v>395041</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>130</v>
+        <v>663</v>
       </c>
       <c r="I10" s="7">
-        <v>86753</v>
+        <v>440069</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>256</v>
+        <v>1259</v>
       </c>
       <c r="N10" s="7">
-        <v>170758</v>
+        <v>835110</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,54 +1902,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D11" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I11" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N11" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1977,7 +1967,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1992,7 +1982,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2007,109 +1997,109 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
         <v>15</v>
       </c>
-      <c r="C13" s="7">
-        <v>56</v>
-      </c>
       <c r="D13" s="7">
-        <v>36922</v>
+        <v>10144</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>21046</v>
+        <v>6764</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>57968</v>
+        <v>16908</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>663</v>
+        <v>239</v>
       </c>
       <c r="D14" s="7">
-        <v>440069</v>
+        <v>163922</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>596</v>
+        <v>226</v>
       </c>
       <c r="I14" s="7">
-        <v>395041</v>
+        <v>151374</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>1259</v>
+        <v>465</v>
       </c>
       <c r="N14" s="7">
-        <v>835110</v>
+        <v>315297</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,54 +2108,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D15" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I15" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N15" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2183,7 +2173,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2198,7 +2188,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2213,109 +2203,109 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D17" s="7">
-        <v>6764</v>
+        <v>35304</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="7">
         <v>70</v>
       </c>
-      <c r="H17" s="7">
-        <v>15</v>
-      </c>
       <c r="I17" s="7">
-        <v>10144</v>
+        <v>46525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="N17" s="7">
-        <v>16908</v>
+        <v>81829</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>226</v>
+        <v>965</v>
       </c>
       <c r="D18" s="7">
-        <v>151374</v>
+        <v>645717</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7">
-        <v>239</v>
+        <v>1015</v>
       </c>
       <c r="I18" s="7">
-        <v>163922</v>
+        <v>675449</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="M18" s="7">
-        <v>465</v>
+        <v>1980</v>
       </c>
       <c r="N18" s="7">
-        <v>315297</v>
+        <v>1321166</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,267 +2314,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D19" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I19" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N19" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>70</v>
-      </c>
-      <c r="D21" s="7">
-        <v>46525</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="7">
-        <v>53</v>
-      </c>
-      <c r="I21" s="7">
-        <v>35304</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M21" s="7">
-        <v>123</v>
-      </c>
-      <c r="N21" s="7">
-        <v>81829</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1016</v>
-      </c>
-      <c r="D22" s="7">
-        <v>676175</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="7">
-        <v>965</v>
-      </c>
-      <c r="I22" s="7">
-        <v>645717</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="A20" t="s">
         <v>100</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1981</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1321892</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D23" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I23" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>105</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2597,8 +2380,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72BBE4F-3F62-445E-8202-463F5BAE16FE}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21F284F-94E0-467D-9927-FFA8840BB6C4}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2614,7 +2397,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2727,20 +2510,22 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2755,105 +2540,109 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4053</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I5" s="7">
+        <v>12584</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>16637</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>88316</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="I6" s="7">
+        <v>73608</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>161924</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,52 +2651,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D7" s="7">
-        <v>641</v>
+        <v>92369</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="I7" s="7">
+        <v>86192</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="N7" s="7">
-        <v>641</v>
+        <v>178561</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2925,7 +2716,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2940,7 +2731,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2955,109 +2746,109 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D9" s="7">
-        <v>12584</v>
+        <v>37951</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="I9" s="7">
-        <v>4053</v>
+        <v>44894</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M9" s="7">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="N9" s="7">
-        <v>16637</v>
+        <v>82845</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>104</v>
+        <v>599</v>
       </c>
       <c r="D10" s="7">
-        <v>73608</v>
+        <v>413848</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H10" s="7">
-        <v>128</v>
+        <v>641</v>
       </c>
       <c r="I10" s="7">
-        <v>88316</v>
+        <v>447861</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M10" s="7">
-        <v>232</v>
+        <v>1240</v>
       </c>
       <c r="N10" s="7">
-        <v>161924</v>
+        <v>861709</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,54 +2857,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>121</v>
+        <v>654</v>
       </c>
       <c r="D11" s="7">
-        <v>86192</v>
+        <v>451799</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>134</v>
+        <v>706</v>
       </c>
       <c r="I11" s="7">
-        <v>92369</v>
+        <v>492755</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>255</v>
+        <v>1360</v>
       </c>
       <c r="N11" s="7">
-        <v>178561</v>
+        <v>944554</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3131,7 +2922,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3146,7 +2937,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3161,109 +2952,109 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>44894</v>
+        <v>9708</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>37951</v>
+        <v>15899</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>82845</v>
+        <v>25607</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>641</v>
+        <v>222</v>
       </c>
       <c r="D14" s="7">
-        <v>447861</v>
+        <v>157104</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
-        <v>599</v>
+        <v>220</v>
       </c>
       <c r="I14" s="7">
-        <v>413848</v>
+        <v>155582</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
-        <v>1240</v>
+        <v>442</v>
       </c>
       <c r="N14" s="7">
-        <v>861709</v>
+        <v>312686</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,54 +3063,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>706</v>
+        <v>236</v>
       </c>
       <c r="D15" s="7">
-        <v>492755</v>
+        <v>166812</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>654</v>
+        <v>243</v>
       </c>
       <c r="I15" s="7">
-        <v>451799</v>
+        <v>171481</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>1360</v>
+        <v>479</v>
       </c>
       <c r="N15" s="7">
-        <v>944554</v>
+        <v>338293</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3337,7 +3128,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3352,7 +3143,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3367,109 +3158,109 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="D17" s="7">
-        <v>15899</v>
+        <v>51712</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="I17" s="7">
-        <v>9708</v>
+        <v>73377</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="N17" s="7">
-        <v>25607</v>
+        <v>125089</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>220</v>
+        <v>949</v>
       </c>
       <c r="D18" s="7">
-        <v>155582</v>
+        <v>659268</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="H18" s="7">
-        <v>222</v>
+        <v>965</v>
       </c>
       <c r="I18" s="7">
-        <v>157104</v>
+        <v>677051</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="M18" s="7">
-        <v>442</v>
+        <v>1914</v>
       </c>
       <c r="N18" s="7">
-        <v>312686</v>
+        <v>1336319</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,267 +3269,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>243</v>
+        <v>1024</v>
       </c>
       <c r="D19" s="7">
-        <v>171481</v>
+        <v>710980</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>236</v>
+        <v>1070</v>
       </c>
       <c r="I19" s="7">
-        <v>166812</v>
+        <v>750428</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>479</v>
+        <v>2094</v>
       </c>
       <c r="N19" s="7">
-        <v>338293</v>
+        <v>1461408</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>105</v>
-      </c>
-      <c r="D21" s="7">
-        <v>73377</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H21" s="7">
-        <v>75</v>
-      </c>
-      <c r="I21" s="7">
-        <v>51712</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M21" s="7">
-        <v>180</v>
-      </c>
-      <c r="N21" s="7">
-        <v>125089</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="7">
-        <v>966</v>
-      </c>
-      <c r="D22" s="7">
-        <v>677692</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="7">
-        <v>949</v>
-      </c>
-      <c r="I22" s="7">
-        <v>659268</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1915</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1336960</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1071</v>
-      </c>
-      <c r="D23" s="7">
-        <v>751069</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I23" s="7">
-        <v>710980</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2095</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1462049</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>105</v>
+      <c r="A20" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3751,8 +3335,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36E2AE9-866E-40D6-AD08-8FD2C717BB83}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F56D2D5-DB02-492A-9B91-592C89090868}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3768,7 +3352,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3871,131 +3455,149 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2457</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2529</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4986</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="D6" s="7">
+        <v>56921</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="I6" s="7">
+        <v>66085</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>180</v>
+      </c>
+      <c r="N6" s="7">
+        <v>123007</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,48 +3606,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D7" s="7">
+        <v>59378</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I7" s="7">
+        <v>68614</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N7" s="7">
+        <v>127993</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4063,7 +3671,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4078,7 +3686,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4093,109 +3701,109 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D9" s="7">
-        <v>2529</v>
+        <v>16500</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="H9" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="I9" s="7">
-        <v>2457</v>
+        <v>31390</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="M9" s="7">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="N9" s="7">
-        <v>4986</v>
+        <v>47890</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>95</v>
+        <v>688</v>
       </c>
       <c r="D10" s="7">
-        <v>66085</v>
+        <v>455173</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
-        <v>85</v>
+        <v>650</v>
       </c>
       <c r="I10" s="7">
-        <v>56921</v>
+        <v>456683</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
-        <v>180</v>
+        <v>1338</v>
       </c>
       <c r="N10" s="7">
-        <v>123007</v>
+        <v>911856</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,54 +3812,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>99</v>
+        <v>713</v>
       </c>
       <c r="D11" s="7">
-        <v>68614</v>
+        <v>471673</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>89</v>
+        <v>694</v>
       </c>
       <c r="I11" s="7">
-        <v>59378</v>
+        <v>488073</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>188</v>
+        <v>1407</v>
       </c>
       <c r="N11" s="7">
-        <v>127993</v>
+        <v>959746</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4269,7 +3877,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4284,7 +3892,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4299,109 +3907,109 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>31390</v>
+        <v>4412</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>16500</v>
+        <v>6805</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>47890</v>
+        <v>11218</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>650</v>
+        <v>249</v>
       </c>
       <c r="D14" s="7">
-        <v>456683</v>
+        <v>166598</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
-        <v>688</v>
+        <v>260</v>
       </c>
       <c r="I14" s="7">
-        <v>455173</v>
+        <v>180011</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
-        <v>1338</v>
+        <v>509</v>
       </c>
       <c r="N14" s="7">
-        <v>911856</v>
+        <v>346608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,54 +4018,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>694</v>
+        <v>256</v>
       </c>
       <c r="D15" s="7">
-        <v>488073</v>
+        <v>171010</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>713</v>
+        <v>270</v>
       </c>
       <c r="I15" s="7">
-        <v>471673</v>
+        <v>186816</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>1407</v>
+        <v>526</v>
       </c>
       <c r="N15" s="7">
-        <v>959746</v>
+        <v>357826</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4475,7 +4083,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4490,7 +4098,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4505,109 +4113,109 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7">
-        <v>6805</v>
+        <v>23369</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="I17" s="7">
-        <v>4412</v>
+        <v>40724</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="N17" s="7">
-        <v>11218</v>
+        <v>64093</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>260</v>
+        <v>1022</v>
       </c>
       <c r="D18" s="7">
-        <v>180011</v>
+        <v>678692</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H18" s="7">
-        <v>249</v>
+        <v>1005</v>
       </c>
       <c r="I18" s="7">
-        <v>166598</v>
+        <v>702779</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="M18" s="7">
-        <v>509</v>
+        <v>2027</v>
       </c>
       <c r="N18" s="7">
-        <v>346608</v>
+        <v>1381471</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>41</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,267 +4224,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>270</v>
+        <v>1058</v>
       </c>
       <c r="D19" s="7">
-        <v>186816</v>
+        <v>702061</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>256</v>
+        <v>1063</v>
       </c>
       <c r="I19" s="7">
-        <v>171010</v>
+        <v>743503</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>526</v>
+        <v>2121</v>
       </c>
       <c r="N19" s="7">
-        <v>357826</v>
+        <v>1445564</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>58</v>
-      </c>
-      <c r="D21" s="7">
-        <v>40724</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H21" s="7">
-        <v>36</v>
-      </c>
-      <c r="I21" s="7">
-        <v>23369</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="M21" s="7">
-        <v>94</v>
-      </c>
-      <c r="N21" s="7">
-        <v>64093</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1005</v>
-      </c>
-      <c r="D22" s="7">
-        <v>702779</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1022</v>
-      </c>
-      <c r="I22" s="7">
-        <v>678692</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M22" s="7">
-        <v>2027</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1381471</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1063</v>
-      </c>
-      <c r="D23" s="7">
-        <v>743503</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1058</v>
-      </c>
-      <c r="I23" s="7">
-        <v>702061</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2121</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1445564</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>105</v>
+      <c r="A20" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4889,8 +4290,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F79C7FC-EF9B-4FF9-844C-72DB0FAB35E1}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AAA54F-831C-4DF8-BD9C-F11F635B5374}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4906,7 +4307,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5009,15 +4410,17 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5032,7 +4435,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5047,105 +4450,109 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1082</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>2432</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53596</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>60654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>260</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>114250</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>263</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,70 +4561,72 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D7" s="7">
+        <v>54678</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I7" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N7" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5232,124 +4641,124 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7">
-        <v>1036</v>
+        <v>11019</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>1080</v>
+        <v>14746</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>131</v>
+        <v>274</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="N9" s="7">
-        <v>2116</v>
+        <v>25765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>184</v>
+        <v>275</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>82</v>
+        <v>624</v>
       </c>
       <c r="D10" s="7">
-        <v>57721</v>
+        <v>448260</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
       <c r="H10" s="7">
-        <v>67</v>
+        <v>636</v>
       </c>
       <c r="I10" s="7">
-        <v>50122</v>
+        <v>500793</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>17</v>
+        <v>283</v>
       </c>
       <c r="M10" s="7">
-        <v>149</v>
+        <v>1260</v>
       </c>
       <c r="N10" s="7">
-        <v>107843</v>
+        <v>949052</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,54 +4767,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>83</v>
+        <v>642</v>
       </c>
       <c r="D11" s="7">
-        <v>58757</v>
+        <v>460094</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>69</v>
+        <v>655</v>
       </c>
       <c r="I11" s="7">
-        <v>51202</v>
+        <v>515539</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>152</v>
+        <v>1297</v>
       </c>
       <c r="N11" s="7">
-        <v>109959</v>
+        <v>975633</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5423,139 +4832,139 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>127</v>
+        <v>287</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M12" s="7">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>833</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>13974</v>
+        <v>5051</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>11014</v>
+        <v>7937</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>24989</v>
+        <v>12988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>636</v>
+        <v>223</v>
       </c>
       <c r="D14" s="7">
-        <v>477396</v>
+        <v>144500</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
-        <v>624</v>
+        <v>229</v>
       </c>
       <c r="I14" s="7">
-        <v>437703</v>
+        <v>175412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
-        <v>1260</v>
+        <v>452</v>
       </c>
       <c r="N14" s="7">
-        <v>915100</v>
+        <v>319912</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,72 +4973,72 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>655</v>
+        <v>230</v>
       </c>
       <c r="D15" s="7">
-        <v>491370</v>
+        <v>149551</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>642</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>449550</v>
+        <v>183349</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>1297</v>
+        <v>468</v>
       </c>
       <c r="N15" s="7">
-        <v>940921</v>
+        <v>332900</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5644,124 +5053,124 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7">
-        <v>7399</v>
+        <v>17151</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="I17" s="7">
-        <v>5107</v>
+        <v>24034</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="M17" s="7">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="N17" s="7">
-        <v>12507</v>
+        <v>41185</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>229</v>
+        <v>914</v>
       </c>
       <c r="D18" s="7">
-        <v>167184</v>
+        <v>646356</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>947</v>
       </c>
       <c r="I18" s="7">
-        <v>146263</v>
+        <v>736858</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="M18" s="7">
-        <v>452</v>
+        <v>1861</v>
       </c>
       <c r="N18" s="7">
-        <v>313445</v>
+        <v>1383215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,267 +5179,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>238</v>
+        <v>941</v>
       </c>
       <c r="D19" s="7">
-        <v>174583</v>
+        <v>664323</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>230</v>
+        <v>976</v>
       </c>
       <c r="I19" s="7">
-        <v>151370</v>
+        <v>760892</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>468</v>
+        <v>1917</v>
       </c>
       <c r="N19" s="7">
-        <v>325952</v>
+        <v>1425215</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>833</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>833</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>29</v>
-      </c>
-      <c r="D21" s="7">
-        <v>22410</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H21" s="7">
-        <v>26</v>
-      </c>
-      <c r="I21" s="7">
-        <v>17201</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="M21" s="7">
-        <v>55</v>
-      </c>
-      <c r="N21" s="7">
-        <v>39611</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="7">
-        <v>947</v>
-      </c>
-      <c r="D22" s="7">
-        <v>702300</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H22" s="7">
-        <v>915</v>
-      </c>
-      <c r="I22" s="7">
-        <v>635260</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1862</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1337560</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>976</v>
-      </c>
-      <c r="D23" s="7">
-        <v>724710</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="7">
-        <v>942</v>
-      </c>
-      <c r="I23" s="7">
-        <v>653294</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1378003</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>105</v>
+      <c r="A20" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
